--- a/StructureDefinition-ext-R5-Patient.contact.xlsx
+++ b/StructureDefinition-ext-R5-Patient.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-patient-contactrelationship-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -569,15 +560,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-administrative-gender-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:organization</t>
   </si>
   <si>
@@ -609,7 +591,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1005,8 +987,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.3515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1924,43 +1906,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1968,13 +1950,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1999,14 +1981,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2075,7 +2057,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2178,7 +2160,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2283,7 +2265,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2326,7 +2308,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2388,7 +2370,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2414,13 +2396,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2471,7 +2453,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2483,7 +2465,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2491,13 +2473,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2522,16 +2504,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2600,7 +2582,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2703,7 +2685,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2808,7 +2790,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2851,7 +2833,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2913,7 +2895,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2939,16 +2921,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2998,7 +2980,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3010,7 +2992,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3018,13 +3000,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3049,14 +3031,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3125,7 +3107,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3228,7 +3210,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3333,7 +3315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3376,7 +3358,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3438,7 +3420,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3464,13 +3446,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3521,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3533,7 +3515,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3541,13 +3523,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3572,14 +3554,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3648,7 +3630,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3751,7 +3733,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3856,7 +3838,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3899,7 +3881,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3961,7 +3943,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3987,13 +3969,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4020,13 +4002,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4044,7 +4026,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4056,7 +4038,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4064,13 +4046,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4095,14 +4077,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4153,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4274,7 +4256,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4379,7 +4361,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4422,7 +4404,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4484,7 +4466,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4510,13 +4492,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4567,7 +4549,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4579,7 +4561,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -4587,13 +4569,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4618,14 +4600,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4694,7 +4676,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4797,7 +4779,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4902,7 +4884,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -4945,7 +4927,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5007,7 +4989,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5033,13 +5015,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5090,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5102,7 +5084,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5215,10 +5197,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5241,13 +5223,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5298,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5310,7 +5292,7 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>121</v>
